--- a/3 четверть_1_HTML_CSS_свойства 1.xlsx
+++ b/3 четверть_1_HTML_CSS_свойства 1.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2807DE-7E82-4CE9-8536-399FEF5CF9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D68EE9-5AA2-4F1B-A1C6-DE552DF1CD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Подход к верстке" sheetId="27" r:id="rId1"/>
-    <sheet name="CSS Отступы" sheetId="25" r:id="rId2"/>
-    <sheet name="Названия class" sheetId="24" r:id="rId3"/>
-    <sheet name="CSS Текст" sheetId="15" r:id="rId4"/>
-    <sheet name="CSS Интервал-Строки" sheetId="23" r:id="rId5"/>
-    <sheet name="CSS &lt;ul&gt;&lt;ol&gt;" sheetId="21" r:id="rId6"/>
-    <sheet name="CSS Шрифт" sheetId="19" r:id="rId7"/>
-    <sheet name="CSS Цвет" sheetId="22" r:id="rId8"/>
-    <sheet name="CSS Фон" sheetId="17" r:id="rId9"/>
-    <sheet name="CSS Рамка" sheetId="18" r:id="rId10"/>
-    <sheet name="VsCode hotkeys" sheetId="13" r:id="rId11"/>
-    <sheet name="empty" sheetId="16" r:id="rId12"/>
+    <sheet name="CSS Отступы" sheetId="25" r:id="rId1"/>
+    <sheet name="Названия class" sheetId="24" r:id="rId2"/>
+    <sheet name="CSS Текст" sheetId="15" r:id="rId3"/>
+    <sheet name="CSS Интервал-Строки" sheetId="23" r:id="rId4"/>
+    <sheet name="CSS &lt;ul&gt;&lt;ol&gt;" sheetId="21" r:id="rId5"/>
+    <sheet name="CSS Шрифт" sheetId="19" r:id="rId6"/>
+    <sheet name="CSS Цвет" sheetId="22" r:id="rId7"/>
+    <sheet name="VsCode hotkeys" sheetId="13" r:id="rId8"/>
+    <sheet name="empty" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="263">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -569,12 +566,6 @@
     </r>
   </si>
   <si>
-    <t>width, height – ширина и высота</t>
-  </si>
-  <si>
-    <t>background – фон элемента</t>
-  </si>
-  <si>
     <t>color – цвет текста</t>
   </si>
   <si>
@@ -608,259 +599,10 @@
     <t>Редактирование текста</t>
   </si>
   <si>
-    <t>00 41 00</t>
-  </si>
-  <si>
-    <t>00 42 00</t>
-  </si>
-  <si>
-    <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/background-position</t>
-  </si>
-  <si>
-    <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/background-image</t>
-  </si>
-  <si>
-    <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/background-repeat</t>
-  </si>
-  <si>
-    <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/background-size</t>
-  </si>
-  <si>
-    <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/background-color</t>
-  </si>
-  <si>
-    <t>background-size:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">background-repeat: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">background-position: </t>
-  </si>
-  <si>
-    <t>background-image:</t>
-  </si>
-  <si>
-    <t>background-color:</t>
-  </si>
-  <si>
     <t>(hotkey - "class" + tab)</t>
   </si>
   <si>
-    <t>background: === background-size: + background-repeat:  + background-position: …</t>
-  </si>
-  <si>
-    <t>00 49 34</t>
-  </si>
-  <si>
-    <t>border – рамка === &lt;hr&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Цвет рамки</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-border-color: red; 
-border-color: #f00; 
-border-color: RGB(255, 0, 0); </t>
-    </r>
-  </si>
-  <si>
-    <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/border-color</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Стиль рамки
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Примечание!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Могут быть перечислены через пробел
-border-style: solid; 
-border-style: dotted; 
-border-style: dashed; 
-border-style: groove; 
-border-style: ridge; 
-border-style: double; 
-border-style: inset; 
-border-style: outset; </t>
-    </r>
-  </si>
-  <si>
-    <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/border-style</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">`https://developer.mozilla.org/en-US/docs/Web/CSS/border-width
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">This property is a shorthand </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for the following CSS properties:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>border-bottom-width
-border-left-width
-border-right-width
-border-top-width</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Толщина рамки
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Примечание! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Параметры ширины применяются по часовой стрелке
-border-width: 2px;
-2px: со всех сторон одинаково
-border-width: 1px 2px;
-1px: верхняя и нижняя
-2px: левая и правая 
-border-width: 1px 2px 3px;
-1px: верхняя
-2px: левая и правая
-3 нижняя
-border-width: 1px 2px 3px 4px;
-1px: верхняя
-2px: правая
-3px: нижняя
-4px: левая</t>
-    </r>
-  </si>
-  <si>
-    <t>Обязательный 3/3 параметр
-border-width:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обязательный 2/3 параметр
-border-style: </t>
-  </si>
-  <si>
-    <t>Обязательный 1/3 параметр
-border-color:</t>
-  </si>
-  <si>
     <t>00 52 00</t>
-  </si>
-  <si>
-    <t>Не всегда необходимо применять. Не рекомендуется применять ко всем элементам.
-width: 300px;
-width: 20em;
-width: 75%;
-width: auto;
-height: 300px;
-height: 20em;
-height: 75%;
-height: auto;</t>
   </si>
   <si>
     <t>color: red;
@@ -1176,65 +918,6 @@
     <t>list-style:</t>
   </si>
   <si>
-    <t>border:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Сокращенное свойство</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Для создания рамки вокруг текста, изображения или блока используется объединенное свойство.
-border: 1px solid black;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Сокращенное свойство</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-background: #ff0 url(img/foto.jpg) top repeat-x;
-(любое из свойств может отсутствовать, свойства могут быть указаны в любой последовательности)</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1607,120 +1290,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/border</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-This property is a shorthand</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for the following CSS properties:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>border-color
-border-style
-border-width</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/background</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-This property is a shorthand </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for the following CSS properties:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>background-attachment
-background-clip
-background-color
-background-image
-background-origin
-background-position
-background-repeat
-background-size</t>
-    </r>
-  </si>
-  <si>
-    <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/width
-`https://developer.mozilla.org/en-US/docs/Web/CSS/height</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <u/>
         <sz val="11"/>
@@ -1985,12 +1554,429 @@
     <t>c + tab</t>
   </si>
   <si>
-    <t>w + tab</t>
-  </si>
-  <si>
-    <t>bcg + tab</t>
-  </si>
-  <si>
+    <t>Блоки</t>
+  </si>
+  <si>
+    <t>page — корневой элемент страницы</t>
+  </si>
+  <si>
+    <t>header — шапка (страницы или элемента)</t>
+  </si>
+  <si>
+    <t>footer — подвал (страницы или элемента)</t>
+  </si>
+  <si>
+    <t>section — раздел контента (один из нескольких)</t>
+  </si>
+  <si>
+    <t>body — основная часть (страницы или элемента)</t>
+  </si>
+  <si>
+    <t>content — содержимое элемента</t>
+  </si>
+  <si>
+    <t>sidebar — боковая колонка (страницы или элемента)</t>
+  </si>
+  <si>
+    <t>aside — блок с дополнительной информацией</t>
+  </si>
+  <si>
+    <t>widget — виджет, например, в боковой колонке</t>
+  </si>
+  <si>
+    <t>Типичные названия классов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Примеры:</t>
+  </si>
+  <si>
+    <t>`https://tpverstak.ru/common-css-class-names/</t>
+  </si>
+  <si>
+    <t>Раскладка</t>
+  </si>
+  <si>
+    <t>wrapper, wrap — обёртка, обычно внешняя</t>
+  </si>
+  <si>
+    <t>inner — внутренняя обёртка</t>
+  </si>
+  <si>
+    <t>container, holder, box — контейнер</t>
+  </si>
+  <si>
+    <t>grid — раскладка (страницы или элемента) в виде сетки (обычно содержит в себе row и col)</t>
+  </si>
+  <si>
+    <t>row — контейнер в виде строки</t>
+  </si>
+  <si>
+    <t>col, column — контейнер в виде столбца</t>
+  </si>
+  <si>
+    <t>Текст</t>
+  </si>
+  <si>
+    <t>subtitle — подзаголовок</t>
+  </si>
+  <si>
+    <t>slogan — слоган</t>
+  </si>
+  <si>
+    <t>lead, tagline — лид-абзац в тексте</t>
+  </si>
+  <si>
+    <t>text — текстовый контент</t>
+  </si>
+  <si>
+    <t>desc — описание, вариант текстового контента</t>
+  </si>
+  <si>
+    <t>excerpt — отрывок текста, обычно используется перед ссылкой «Читать далее…»</t>
+  </si>
+  <si>
+    <t>copyright, copy — копирайт</t>
+  </si>
+  <si>
+    <t>Ссылки, кнопки</t>
+  </si>
+  <si>
+    <t>link — ссылка</t>
+  </si>
+  <si>
+    <t>button, btn — кнопка, например, для отправки формы</t>
+  </si>
+  <si>
+    <t>Списки</t>
+  </si>
+  <si>
+    <t>list, items — список</t>
+  </si>
+  <si>
+    <t>item — элемент списка</t>
+  </si>
+  <si>
+    <t>Изображения</t>
+  </si>
+  <si>
+    <t>image, img, picture, pic — картинка</t>
+  </si>
+  <si>
+    <t>icon — иконка</t>
+  </si>
+  <si>
+    <t>logo — логотип</t>
+  </si>
+  <si>
+    <t>userpic, avatar — юзерпик, маленькая картинка пользователя</t>
+  </si>
+  <si>
+    <t>thumbnail, thumb — миниатюра, уменьшенное изображение</t>
+  </si>
+  <si>
+    <t>Элементы управления</t>
+  </si>
+  <si>
+    <t>control — элемент управления, например, стрелки «Вперёд/назад» в фотогалерее, кнопки управления слайдером</t>
+  </si>
+  <si>
+    <t>dropdown — выпадающий список</t>
+  </si>
+  <si>
+    <t>search — поиск</t>
+  </si>
+  <si>
+    <t>slider, carousel — слайдер, интерактивный элемент с прокруткой содержимого</t>
+  </si>
+  <si>
+    <t>pagination — постраничная навигация</t>
+  </si>
+  <si>
+    <t>bullet — переключатели в пагинации</t>
+  </si>
+  <si>
+    <t>modal — модальное (диалоговое) окно</t>
+  </si>
+  <si>
+    <t>popup — всплывающее окно</t>
+  </si>
+  <si>
+    <t>tooltip, tip — всплывающие подсказки</t>
+  </si>
+  <si>
+    <t>preview — анонс, отрывок, например новости или поста, может состоять из заголовка, описания и картинки. Предполагается ссылка на полную версию</t>
+  </si>
+  <si>
+    <t>breadcrumbs — навигационная цепочка, «хлебные крошки»</t>
+  </si>
+  <si>
+    <t>Медиавыражения</t>
+  </si>
+  <si>
+    <t>phone, mobile — мобильные устройства</t>
+  </si>
+  <si>
+    <t>phablet — телефоны с большим экраном (6-7″)</t>
+  </si>
+  <si>
+    <t>tablet — планшеты</t>
+  </si>
+  <si>
+    <t>notebook, laptop — ноутбуки</t>
+  </si>
+  <si>
+    <t>desktop — настольные компьютеры</t>
+  </si>
+  <si>
+    <t>Размеры</t>
+  </si>
+  <si>
+    <t>tiny, xs — маленький, крохотный</t>
+  </si>
+  <si>
+    <t>small, sm — небольшой</t>
+  </si>
+  <si>
+    <t>medium, md — средний</t>
+  </si>
+  <si>
+    <t>big, large, lg — большой</t>
+  </si>
+  <si>
+    <t>huge, xl — огромный</t>
+  </si>
+  <si>
+    <t>narrow — узкий</t>
+  </si>
+  <si>
+    <t>wide — широкий</t>
+  </si>
+  <si>
+    <t>Состояния</t>
+  </si>
+  <si>
+    <t>active, current — активный элемент, например, текущий пункт меню</t>
+  </si>
+  <si>
+    <t>hidden — скрытый элемент</t>
+  </si>
+  <si>
+    <t>error — статус ошибки</t>
+  </si>
+  <si>
+    <t>warning — статус предупреждения</t>
+  </si>
+  <si>
+    <t>success — статус успешного выполнения задачи</t>
+  </si>
+  <si>
+    <t>pending — состояние ожидания, например, перед сменой статуса на error или success</t>
+  </si>
+  <si>
+    <t>Дополнительно</t>
+  </si>
+  <si>
+    <t>socials — блок иконок соцсетей</t>
+  </si>
+  <si>
+    <t>advertisement, adv, commercial, promo — рекламный блок (режутся Адблоком, не рекомендуется использовать такие классы для блоков с внутренней рекламой)</t>
+  </si>
+  <si>
+    <t>features, benefits — список основных особенностей товара, услуги</t>
+  </si>
+  <si>
+    <t>user, author — пользователь, автор записи или комментария</t>
+  </si>
+  <si>
+    <t>meta — блок с дополнительной информацией, например, блок тегов и даты в посте</t>
+  </si>
+  <si>
+    <t>cart, basket — корзина</t>
+  </si>
+  <si>
+    <t>more, all — ссылка на полную информацию</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">title </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(для h1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 
+subject </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(для h2, h3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 
+heading </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(для остальных)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 
+headline </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(для остальных)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, 
+caption </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(для остальных)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> — заголовок</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Супер-важно!!! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Всегда открывай страницу https://developer.mozilla.org/en-US/docs/Web/CSS/border-color при разработке фронта, чтобы правильно подобрать свойства css!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ctrl + F + &lt;p&gt;/&lt;h1&gt;... </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- найти все тэги, классы итп</t>
+    </r>
+  </si>
+  <si>
+    <t>Рекомендация 1:</t>
+  </si>
+  <si>
+    <r>
+      <t>Называть классы по тэгу, к которому они относятся:
+&lt;</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2002,88 +1988,20 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Цвет фона</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-background-color: #ff0;
-background-color: #74992e;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Примечание!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Указывается в виде 6 символов соответствующих схеме RGB. Два значения для R,  Два значения для G,  Два значения для B.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Примечание!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Если 6 символов дублируются, то их можно представить в сокращенном виде, как на примере выше.
-background-color: brown;
-background-color: rgb(255, 255, 128);
-background-color: rgba(255, 255, 128, .5);
-background-color: hsl(50, 33%, 25%);
-background-color: hsla(50, 33%, 25%, .75);</t>
-    </r>
-  </si>
-  <si>
-    <t>bci + tab</t>
-  </si>
-  <si>
-    <t>bcp + tab</t>
-  </si>
-  <si>
-    <t>bcr + tab</t>
-  </si>
-  <si>
-    <t>bcs + tab</t>
-  </si>
-  <si>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> action="#"&gt;
+    &lt;</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2095,7 +2013,106 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Позиция фона</t>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" type="text" placeholder="Введите вашу почту" &gt;&lt;br&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Оформление CSS файла</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Правило!</t>
     </r>
     <r>
       <rPr>
@@ -2116,1137 +2133,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">background-position: top;
-background-position: bottom;
-background-position: left; 
-background-position: right; 
-background-position: center;  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//background-position: center/80%</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Изображение на фоне</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>background-image: url (img/foto.jpg);</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Повторение фона</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-background-repeat: repeat-x; 
-background-repeat: repeat-y; 
-background-repeat: no-repeat; 
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Размер фона</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-background-size: cover; 
-background-size: contain; 
-background-size: 100%; //30%,50%...
-</t>
-    </r>
-  </si>
-  <si>
-    <t>bc + tab</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bs + tab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-dotted
-dashed solid</t>
-    </r>
-  </si>
-  <si>
-    <t>bw + tab</t>
-  </si>
-  <si>
-    <t>b + tab</t>
-  </si>
-  <si>
-    <t>Блоки</t>
-  </si>
-  <si>
-    <t>page — корневой элемент страницы</t>
-  </si>
-  <si>
-    <t>header — шапка (страницы или элемента)</t>
-  </si>
-  <si>
-    <t>footer — подвал (страницы или элемента)</t>
-  </si>
-  <si>
-    <t>section — раздел контента (один из нескольких)</t>
-  </si>
-  <si>
-    <t>body — основная часть (страницы или элемента)</t>
-  </si>
-  <si>
-    <t>content — содержимое элемента</t>
-  </si>
-  <si>
-    <t>sidebar — боковая колонка (страницы или элемента)</t>
-  </si>
-  <si>
-    <t>aside — блок с дополнительной информацией</t>
-  </si>
-  <si>
-    <t>widget — виджет, например, в боковой колонке</t>
-  </si>
-  <si>
-    <t>Типичные названия классов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Примеры:</t>
-  </si>
-  <si>
-    <t>`https://tpverstak.ru/common-css-class-names/</t>
-  </si>
-  <si>
-    <t>Раскладка</t>
-  </si>
-  <si>
-    <t>wrapper, wrap — обёртка, обычно внешняя</t>
-  </si>
-  <si>
-    <t>inner — внутренняя обёртка</t>
-  </si>
-  <si>
-    <t>container, holder, box — контейнер</t>
-  </si>
-  <si>
-    <t>grid — раскладка (страницы или элемента) в виде сетки (обычно содержит в себе row и col)</t>
-  </si>
-  <si>
-    <t>row — контейнер в виде строки</t>
-  </si>
-  <si>
-    <t>col, column — контейнер в виде столбца</t>
-  </si>
-  <si>
-    <t>Текст</t>
-  </si>
-  <si>
-    <t>subtitle — подзаголовок</t>
-  </si>
-  <si>
-    <t>slogan — слоган</t>
-  </si>
-  <si>
-    <t>lead, tagline — лид-абзац в тексте</t>
-  </si>
-  <si>
-    <t>text — текстовый контент</t>
-  </si>
-  <si>
-    <t>desc — описание, вариант текстового контента</t>
-  </si>
-  <si>
-    <t>excerpt — отрывок текста, обычно используется перед ссылкой «Читать далее…»</t>
-  </si>
-  <si>
-    <t>copyright, copy — копирайт</t>
-  </si>
-  <si>
-    <t>Ссылки, кнопки</t>
-  </si>
-  <si>
-    <t>link — ссылка</t>
-  </si>
-  <si>
-    <t>button, btn — кнопка, например, для отправки формы</t>
-  </si>
-  <si>
-    <t>Списки</t>
-  </si>
-  <si>
-    <t>list, items — список</t>
-  </si>
-  <si>
-    <t>item — элемент списка</t>
-  </si>
-  <si>
-    <t>Изображения</t>
-  </si>
-  <si>
-    <t>image, img, picture, pic — картинка</t>
-  </si>
-  <si>
-    <t>icon — иконка</t>
-  </si>
-  <si>
-    <t>logo — логотип</t>
-  </si>
-  <si>
-    <t>userpic, avatar — юзерпик, маленькая картинка пользователя</t>
-  </si>
-  <si>
-    <t>thumbnail, thumb — миниатюра, уменьшенное изображение</t>
-  </si>
-  <si>
-    <t>Элементы управления</t>
-  </si>
-  <si>
-    <t>control — элемент управления, например, стрелки «Вперёд/назад» в фотогалерее, кнопки управления слайдером</t>
-  </si>
-  <si>
-    <t>dropdown — выпадающий список</t>
-  </si>
-  <si>
-    <t>search — поиск</t>
-  </si>
-  <si>
-    <t>slider, carousel — слайдер, интерактивный элемент с прокруткой содержимого</t>
-  </si>
-  <si>
-    <t>pagination — постраничная навигация</t>
-  </si>
-  <si>
-    <t>bullet — переключатели в пагинации</t>
-  </si>
-  <si>
-    <t>modal — модальное (диалоговое) окно</t>
-  </si>
-  <si>
-    <t>popup — всплывающее окно</t>
-  </si>
-  <si>
-    <t>tooltip, tip — всплывающие подсказки</t>
-  </si>
-  <si>
-    <t>preview — анонс, отрывок, например новости или поста, может состоять из заголовка, описания и картинки. Предполагается ссылка на полную версию</t>
-  </si>
-  <si>
-    <t>breadcrumbs — навигационная цепочка, «хлебные крошки»</t>
-  </si>
-  <si>
-    <t>Медиавыражения</t>
-  </si>
-  <si>
-    <t>phone, mobile — мобильные устройства</t>
-  </si>
-  <si>
-    <t>phablet — телефоны с большим экраном (6-7″)</t>
-  </si>
-  <si>
-    <t>tablet — планшеты</t>
-  </si>
-  <si>
-    <t>notebook, laptop — ноутбуки</t>
-  </si>
-  <si>
-    <t>desktop — настольные компьютеры</t>
-  </si>
-  <si>
-    <t>Размеры</t>
-  </si>
-  <si>
-    <t>tiny, xs — маленький, крохотный</t>
-  </si>
-  <si>
-    <t>small, sm — небольшой</t>
-  </si>
-  <si>
-    <t>medium, md — средний</t>
-  </si>
-  <si>
-    <t>big, large, lg — большой</t>
-  </si>
-  <si>
-    <t>huge, xl — огромный</t>
-  </si>
-  <si>
-    <t>narrow — узкий</t>
-  </si>
-  <si>
-    <t>wide — широкий</t>
-  </si>
-  <si>
-    <t>Состояния</t>
-  </si>
-  <si>
-    <t>active, current — активный элемент, например, текущий пункт меню</t>
-  </si>
-  <si>
-    <t>hidden — скрытый элемент</t>
-  </si>
-  <si>
-    <t>error — статус ошибки</t>
-  </si>
-  <si>
-    <t>warning — статус предупреждения</t>
-  </si>
-  <si>
-    <t>success — статус успешного выполнения задачи</t>
-  </si>
-  <si>
-    <t>pending — состояние ожидания, например, перед сменой статуса на error или success</t>
-  </si>
-  <si>
-    <t>Дополнительно</t>
-  </si>
-  <si>
-    <t>socials — блок иконок соцсетей</t>
-  </si>
-  <si>
-    <t>advertisement, adv, commercial, promo — рекламный блок (режутся Адблоком, не рекомендуется использовать такие классы для блоков с внутренней рекламой)</t>
-  </si>
-  <si>
-    <t>features, benefits — список основных особенностей товара, услуги</t>
-  </si>
-  <si>
-    <t>user, author — пользователь, автор записи или комментария</t>
-  </si>
-  <si>
-    <t>meta — блок с дополнительной информацией, например, блок тегов и даты в посте</t>
-  </si>
-  <si>
-    <t>cart, basket — корзина</t>
-  </si>
-  <si>
-    <t>more, all — ссылка на полную информацию</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">title </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(для h1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 
-subject </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(для h2, h3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 
-heading </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(для остальных)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 
-headline </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(для остальных)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, 
-caption </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(для остальных)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> — заголовок</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>br + tab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">border-radius: </t>
-  </si>
-  <si>
-    <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/border-radius</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Округление рамки</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-border-radius: 30px;
-border-radius: 25% 10%;
-border-radius: 10% 30% 50% 70%;
-border-radius: 10% / 50%;
-border-radius: 10px 100px / 120px;
-border-radius: 50% 20% / 10% 40%;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Супер-важно!!! </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Всегда открывай страницу https://developer.mozilla.org/en-US/docs/Web/CSS/border-color при разработке фронта, чтобы правильно подобрать свойства css!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ctrl + F + &lt;p&gt;/&lt;h1&gt;... </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- найти все тэги, классы итп</t>
-    </r>
-  </si>
-  <si>
-    <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/outline-color</t>
-  </si>
-  <si>
-    <t>outline:</t>
-  </si>
-  <si>
-    <t>outline-color:</t>
-  </si>
-  <si>
-    <t>outline – рамка (ver 2) === &lt;hr&gt;</t>
-  </si>
-  <si>
-    <t>Разница между border и outline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Разница между border и outline</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Outline не меняет месторасположения остальных элементов на странице в зависимости от своих параметров высоты и ширины
-Border наоборот - передвигает другие элементы</t>
-    </r>
-  </si>
-  <si>
-    <t>oc + tab</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">`https://developer.mozilla.org/en-US/docs/Web/CSS/outline
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This property is a shorthand</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for the following CSS properties:
-outline-color
-outline-style
-outline-width</t>
-    </r>
-  </si>
-  <si>
-    <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/outline-offset</t>
-  </si>
-  <si>
-    <t>outline-offset:</t>
-  </si>
-  <si>
-    <t>oo + tab</t>
-  </si>
-  <si>
-    <t>o + tab</t>
-  </si>
-  <si>
-    <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/outline-style</t>
-  </si>
-  <si>
-    <t>outline-style:</t>
-  </si>
-  <si>
-    <t>os + tab</t>
-  </si>
-  <si>
-    <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/outline-width</t>
-  </si>
-  <si>
-    <t>outline-width:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Толщина рамки</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/* Keyword values */
-outline-width: thin;
-outline-width: medium;
-outline-width: thick;
-/* &lt;length&gt; values */
-outline-width: 1px;
-outline-width: 0.1em;
-/* Global values */
-outline-width: inherit;
-outline-width: initial;
-outline-width: revert;
-outline-width: revert-layer;
-outline-width: unset;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Стиль рамки</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/* Keyword values */
-outline-style: auto;
-outline-style: none;
-outline-style: dotted;
-outline-style: dashed;
-outline-style: solid;
-outline-style: double;
-outline-style: groove;
-outline-style: ridge;
-outline-style: inset;
-outline-style: outset;
-/* Global values */
-outline-style: inherit;
-outline-style: initial;
-outline-style: revert;
-outline-style: revert-layer;
-outline-style: unset;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Отдаление рамки от блока с текстом</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/* &lt;length&gt; values */
-outline-offset: 3px;
-outline-offset: 0.2em;
-/* Global values */
-outline-offset: inherit;
-outline-offset: initial;
-outline-offset: revert;
-outline-offset: revert-layer;
-outline-offset: unset;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Цвет рамки</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/* style */
-outline: solid;
-/* color | style */
-outline: #f66 dashed;
-/* style | width */
-outline: inset thick;
-/* color | style | width */
-outline: green solid 3px;
-/* Global values */
-outline: inherit;
-outline: initial;
-outline: revert;
-outline: revert-layer;
-outline: unset;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Цвет рамки</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-/* &lt;color&gt; values */
-outline-color: #f92525;
-outline-color: rgb(30 222 121);
-outline-color: blue;
-/* Keyword value */
-outline-color: auto;
-/* Global values */
-outline-color: inherit;
-outline-color: initial;
-outline-color: revert;
-outline-color: revert-layer;
-outline-color: unset;</t>
-    </r>
-  </si>
-  <si>
-    <t>ow + tab</t>
-  </si>
-  <si>
-    <t>Рекомендация 1:</t>
-  </si>
-  <si>
-    <r>
-      <t>Называть классы по тэгу, к которому они относятся:
-&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> action="#"&gt;
-    &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>="</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>form</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>__</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" type="text" placeholder="Введите вашу почту" &gt;&lt;br&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Оформление CSS файла</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Правило!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1 Сверху размещаются селектора по тэгам
@@ -3255,9 +2141,6 @@
   </si>
   <si>
     <t>`https://developer.mozilla.org/en-US/docs/Web/CSS/margin-left</t>
-  </si>
-  <si>
-    <t>ml + tab</t>
   </si>
   <si>
     <t>margin-left:</t>
@@ -4140,116 +3023,128 @@
     <t>`https://code.visualstudio.com/docs/editor/codebasics</t>
   </si>
   <si>
-    <t>Подход к созданию сайтов</t>
-  </si>
-  <si>
-    <t>Шаг 1</t>
-  </si>
-  <si>
-    <t>Шаг 2</t>
-  </si>
-  <si>
-    <t>Открываем pixso (figma)</t>
-  </si>
-  <si>
-    <t>Создаем index.html</t>
-  </si>
-  <si>
-    <r>
-      <t>Указываем 
-&lt;title&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SEO &amp; Digital Marketing For Your Website.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/title&gt;
-&lt;link rel="stylesheet" href="</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>styles.css</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>Шаг 3</t>
-  </si>
-  <si>
-    <t>Создаем styles.css</t>
-  </si>
-  <si>
-    <t>Указываем 
-* {
-    margin: 0;
-    padding: 0;
-}
-a {
-    text-decoration: none;
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шаг 4
+    <t>Подключение шрифтов</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шрифты для подключения:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://fonts.google.com/</t>
+    </r>
+  </si>
+  <si>
+    <t>Шаг 1 Выбираем шрифты</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаг 2 Копируем ссылку в html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;link rel="preconnect" href="https://fonts.googleapis.com"&gt;
+&lt;link rel="preconnect" href="https://fonts.gstatic.com" crossorigin&gt;
+&lt;link href="https://fonts.googleapis.com/css2?family=Roboto:wght@300&amp;display=swap" rel="stylesheet"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаг 3 Подключаем шрифты ко всему сайту</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разбиваем на блоки &lt;div&gt;. Учитываем, что каждый div занимает всю ширину экрана. Поэтому мы делим всю страницу на горизонтальные блоки и создаем divы.
-Каждому div указываем класс.
+    </r>
+  </si>
+  <si>
+    <t>Шаг 4 Подключаем шрифт к определённому элементу</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ml + tab
 </t>
-  </si>
-  <si>
-    <t>Шаг 5</t>
-  </si>
-  <si>
-    <t>В styles.css указываем отсутступы.
-Если header или footer, то чаще с использованием padding.
-Остальные элементы с использование margin-bottom.
-Если есть какой-то элемент с классом, который будет часто повторяться на странице, то для такого элемента лучше избегать указание margin, так как он может быть разным в каждом отдельном случае. (лучше в таком случае margin-top указать у соседних элементов, расположенных снизу)</t>
-  </si>
-  <si>
-    <t>Урок 3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Margin: auto всегда располагает элемент по центу экрана</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4326,15 +3221,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4369,14 +3255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -4402,7 +3280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4439,12 +3317,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4458,7 +3330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -4509,16 +3381,10 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4533,20 +3399,32 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4566,55 +3444,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>121023</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2126814</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1371600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EBDA79B-2544-441B-A9AD-AAD9ACF951B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11138273" y="3632200"/>
-          <a:ext cx="2005791" cy="1238250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4663,27 +3492,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1708150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>94731</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3022779</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1041401</xdr:rowOff>
+      <xdr:colOff>1627943</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>977900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56917211-0637-4C3F-8071-4AE5D642F43D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70DBEAD-F90E-7805-1CE3-19239CA5219A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4699,8 +3528,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12725400" y="6539981"/>
-          <a:ext cx="1314629" cy="946670"/>
+          <a:off x="11233150" y="1409700"/>
+          <a:ext cx="1412043" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4712,22 +3541,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1485900</xdr:colOff>
+      <xdr:colOff>222249</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>137115</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2546526</xdr:colOff>
+      <xdr:colOff>2043002</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1123950</xdr:rowOff>
+      <xdr:rowOff>755649</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AF4659-3166-40CE-A20E-553290E76C9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2FB06F-0AAD-74E8-7952-EB75497646E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4743,8 +3572,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12503150" y="5293315"/>
-          <a:ext cx="1060626" cy="986835"/>
+          <a:off x="11239499" y="2451100"/>
+          <a:ext cx="1820753" cy="698499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4756,22 +3585,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>336550</xdr:rowOff>
+      <xdr:colOff>2317750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2359742</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1631950</xdr:rowOff>
+      <xdr:colOff>3734496</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>794073</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E05C22D-2806-43A5-B652-9AEDBA05CB07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{312C9BD5-7267-1E46-6DE5-98223019016C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4787,365 +3616,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11144250" y="3467100"/>
-          <a:ext cx="2232742" cy="1295400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1828800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>67870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2933872</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>869950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DF57F2-CA75-42EC-8781-569516B1994D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12846050" y="7618020"/>
-          <a:ext cx="1105072" cy="802080"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1854200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>71610</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3143427</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1028700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93CE3389-B4BA-4E3F-8F88-FDAD48564AA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12871450" y="8542510"/>
-          <a:ext cx="1289227" cy="957090"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1151218</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>736600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3556747</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1596131</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D7CEEF-BB5B-4860-925E-AE0BEF9AE298}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12168468" y="1657350"/>
-          <a:ext cx="2405529" cy="859531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1730189</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>80412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3438690</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>664884</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7E3C51-32EF-4D0E-A9D7-DD202A482A6E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12756777" y="827471"/>
-          <a:ext cx="1708501" cy="584472"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1831789</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>216524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3025735</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>635001</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5CBF69-28BB-496D-86F0-EC0DBF104DDD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12858377" y="1703171"/>
-          <a:ext cx="1193946" cy="418477"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1867273</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>977974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3550163</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1606177</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2688FAA7-6427-4A72-8E69-1B78118ABE19}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12893861" y="2464621"/>
-          <a:ext cx="1682890" cy="628203"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>799353</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>87633</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2285369</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1232647</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8412A0F1-8775-8F8D-7955-FA81FAF96318}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11825941" y="7102515"/>
-          <a:ext cx="1486016" cy="1145014"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>35994</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3194072</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>803196</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Рисунок 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059ACF58-831D-D935-F323-74EB9877E94A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11407588" y="10748818"/>
-          <a:ext cx="2813072" cy="767202"/>
+          <a:off x="13335000" y="2528114"/>
+          <a:ext cx="1416746" cy="659909"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5419,14 +3891,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3219BE4F-CE34-4595-9FB4-749B4A9E9491}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54F3BB3-7CFE-47F4-9B2C-E55E3C9F0A22}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5461,12 +3933,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -5489,7 +3961,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="C3" s="9"/>
       <c r="P3" s="1"/>
@@ -5497,8 +3969,8 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
-        <v>333</v>
+      <c r="A4" s="10" t="s">
+        <v>212</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="4"/>
@@ -5519,713 +3991,199 @@
       <c r="U4" s="2"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="B6" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C7" s="28" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="C9" s="28" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+        <v>210</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B09B3EB2-B450-4020-B915-B6E81E878861}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:V20"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="8"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="P3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="145" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="290" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
-        <v>249</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="232" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29311FB2-ECAE-44B7-99A1-C3A7BF8959D5}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:V19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="8"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="P3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C10" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="C11" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C12" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C13" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C14" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C15" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="C16" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="C17" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C18" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13C3D94-4F4A-4762-A0CB-1312565AC4F8}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:V4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="8"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="P3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6237,309 +4195,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54F3BB3-7CFE-47F4-9B2C-E55E3C9F0A22}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:V21"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7265625" style="8"/>
-    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="U2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="P3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>328</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694A8469-7A32-4379-BDBA-CF23E0C16B41}">
   <sheetPr>
     <tabColor theme="7" tint="0.39997558519241921"/>
@@ -6583,12 +4238,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -6622,14 +4277,14 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="27"/>
-      <c r="C5" s="19" t="s">
-        <v>273</v>
+      <c r="B5" s="23"/>
+      <c r="C5" s="18" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -6680,14 +4335,14 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C12" s="13" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="58" x14ac:dyDescent="0.35">
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="13" t="s">
@@ -6696,431 +4351,431 @@
     </row>
     <row r="14" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:21" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>271</v>
+      <c r="A15" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>195</v>
       </c>
       <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23"/>
+        <v>120</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C19" s="4" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C20" s="4" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C21" s="4" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C22" s="4" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C23" s="4" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C24" s="4" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C25" s="4" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C26" s="4" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C27" s="4" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C29" s="4" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C30" s="4" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C31" s="4" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="C32" s="4" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C33" s="4" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C34" s="4" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C36" s="19" t="s">
-        <v>239</v>
+      <c r="C36" s="18" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C37" s="4" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C38" s="4" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C39" s="4" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C40" s="4" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C41" s="4" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C42" s="19" t="s">
-        <v>184</v>
+      <c r="C42" s="18" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C43" s="4" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="11" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C45" s="4" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C46" s="4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C48" s="4" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C49" s="4" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C51" s="4" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C52" s="4" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C53" s="4" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C54" s="4" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C55" s="4" t="s">
-        <v>197</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C57" s="4" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C58" s="4" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C59" s="4" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C60" s="4" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C61" s="4" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C62" s="4" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C63" s="4" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C64" s="4" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C65" s="4" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C66" s="4" t="s">
-        <v>208</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C67" s="4" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="11" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C69" s="4" t="s">
-        <v>211</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C70" s="4" t="s">
-        <v>212</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C71" s="4" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C72" s="4" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C73" s="4" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="11" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C75" s="4" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C76" s="4" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C77" s="4" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C78" s="4" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C79" s="4" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C80" s="4" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C81" s="4" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C83" s="4" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C84" s="4" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C85" s="4" t="s">
-        <v>227</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C86" s="4" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C87" s="4" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C88" s="4" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C90" s="4" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C91" s="4" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C92" s="4" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C93" s="4" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="C94" s="4" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C95" s="4" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C96" s="4" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -7133,7 +4788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7F5DB2-A99B-4529-B692-3EFD61399229}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -7142,7 +4797,7 @@
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7177,12 +4832,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -7205,7 +4860,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C3" s="9"/>
       <c r="P3" s="1"/>
@@ -7214,54 +4869,54 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
       <c r="D4" s="10" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>139</v>
+        <v>74</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>140</v>
+        <v>71</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>141</v>
+        <v>69</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -7273,7 +4928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28470C20-7A79-4B97-B965-750413CB6D15}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -7317,12 +4972,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -7354,7 +5009,7 @@
     </row>
     <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="4"/>
@@ -7377,16 +5032,16 @@
     </row>
     <row r="5" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>138</v>
+        <v>91</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -7398,7 +5053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCF04E6-688B-46A5-A8C2-89C238BBBBFD}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -7442,12 +5097,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -7470,7 +5125,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C3" s="9"/>
       <c r="P3" s="1"/>
@@ -7479,70 +5134,70 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>83</v>
+        <v>61</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="10" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>134</v>
+        <v>78</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>135</v>
+        <v>77</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>136</v>
+        <v>76</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>137</v>
+        <v>64</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -7554,16 +5209,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9AF0FE-EB91-4BCB-84D2-5B47C7F63458}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7598,12 +5253,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -7626,7 +5281,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C3" s="9"/>
       <c r="P3" s="1"/>
@@ -7635,137 +5290,193 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="13" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="26"/>
+      <c r="B6" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C14" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C7" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C11" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C12" s="13" t="s">
+      <c r="C17" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C13" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="13" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>130</v>
+      <c r="C25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -7774,10 +5485,11 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E01C72B-3475-4E55-B7FB-809B1CABF725}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7820,12 +5532,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -7848,7 +5560,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C3" s="9"/>
       <c r="P3" s="1"/>
@@ -7857,53 +5569,53 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="15"/>
       <c r="D4" s="10" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>142</v>
+        <v>40</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="C6" s="28" t="s">
-        <v>309</v>
+      <c r="C6" s="24" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C7" s="28" t="s">
-        <v>310</v>
+      <c r="C7" s="24" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="28" t="s">
-        <v>311</v>
+      <c r="C8" s="24" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="C9" s="28" t="s">
-        <v>313</v>
+      <c r="C9" s="24" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="C10" s="28" t="s">
-        <v>314</v>
+      <c r="C10" s="24" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="C11" s="28" t="s">
-        <v>312</v>
+      <c r="C11" s="24" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7915,15 +5627,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B205BEC2-CA3C-4DFC-983B-A07E3725908E}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29311FB2-ECAE-44B7-99A1-C3A7BF8959D5}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7958,12 +5670,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -7986,126 +5698,213 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="C3" s="9"/>
       <c r="P3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>147</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>154</v>
+      <c r="C10" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C11" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C12" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C14" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C15" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C16" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="C17" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C18" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C19" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -8114,6 +5913,113 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13C3D94-4F4A-4762-A0CB-1312565AC4F8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V4"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.7265625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="8"/>
+    <col min="21" max="21" width="67.7265625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.26953125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="P3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>